--- a/VersionRecords/Version 5.1.0_beta/版本Bug和特性计划及评审表v5.1.0beta_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0_beta/版本Bug和特性计划及评审表v5.1.0beta_马丁组.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.0.5新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.0_bate新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.5新特性|Fix Bug'!$A$1:$U$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0_bate新特性|Fix Bug'!$A$1:$U$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -526,6 +526,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,15 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -929,14 +929,15 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="64.75" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
@@ -1033,13 +1034,13 @@
       <c r="C2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="30" t="s">
@@ -1069,7 +1070,7 @@
       <c r="Q2" s="35"/>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
-      <c r="T2" s="46"/>
+      <c r="T2" s="42"/>
       <c r="U2" s="39"/>
       <c r="V2" s="38"/>
     </row>
@@ -1083,13 +1084,13 @@
       <c r="C3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -1119,7 +1120,7 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
-      <c r="T3" s="46"/>
+      <c r="T3" s="42"/>
       <c r="U3" s="39"/>
       <c r="V3" s="38"/>
     </row>
@@ -5557,36 +5558,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
